--- a/Teams/output/predTest.xlsx
+++ b/Teams/output/predTest.xlsx
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -5793,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7701,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>

--- a/Teams/output/predTest.xlsx
+++ b/Teams/output/predTest.xlsx
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -5142,10 +5142,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
         <v>1</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -7701,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -7881,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
